--- a/Graph-Complexity-Analysis.xlsx
+++ b/Graph-Complexity-Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d0a2de0559764e6/^NOneDrive USM/BACHELOR IN SOFTWARE ENG. (HONS.)/YEAR 2/SEMESTER 2/CPT212 - DESIGN ^0 ANALYSIS OF ALGORITHMS/ASSIGNMENTS/Assignment 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d0a2de0559764e6/^NOneDrive USM/BACHELOR IN SOFTWARE ENG. (HONS.)/YEAR 2/SEMESTER 2/CPT212 - DESIGN ^0 ANALYSIS OF ALGORITHMS/ASSIGNMENTS/Assignment 1/^NFinalised/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_F25DC773A252ABDACC104867511F79425BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4226177D-E5F8-4EA3-8C29-510DE5E2B48E}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="11_F25DC773A252ABDACC104867511F79425BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77E745C3-55A3-4567-8B87-BE923789ED3A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,19 +43,19 @@
     <t>When O(T(n)) = O(nk), where k = 5</t>
   </si>
   <si>
-    <t>When O(T(n)) = O(nk), where L = 3</t>
+    <t>When O(T(n)) = O(nk), where k = 7</t>
   </si>
   <si>
-    <t>When O(T(n)) = O(nk), where L = 4</t>
+    <t>When O(T(n)) = O(nL), where L = 3</t>
   </si>
   <si>
-    <t>When O(T(n)) = O(nk), where L = 5</t>
+    <t>When O(T(n)) = O(nL), where L = 4</t>
   </si>
   <si>
-    <t>When O(T(n)) = O(nk), where L = 10</t>
+    <t>When O(T(n)) = O(nL), where L = 5</t>
   </si>
   <si>
-    <t>When O(T(n)) = O(nk), where k = 7</t>
+    <t>When O(T(n)) = O(nL), where L = 10</t>
   </si>
 </sst>
 </file>
@@ -7724,10 +7724,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8283,7 +8279,7 @@
     </row>
     <row r="52" spans="1:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -8385,8 +8381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C688515-ACD4-43F7-A9FA-150E3C8A28D2}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8396,7 +8392,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8489,7 +8485,7 @@
     </row>
     <row r="17" spans="1:2" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -8582,7 +8578,7 @@
     </row>
     <row r="33" spans="1:2" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -8675,7 +8671,7 @@
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
